--- a/biology/Zoologie/Coua_huppé/Coua_huppé.xlsx
+++ b/biology/Zoologie/Coua_huppé/Coua_huppé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coua_hupp%C3%A9</t>
+          <t>Coua_huppé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coua cristata
 Le Coua huppé (Coua cristata) est une espèce d'oiseau endémique de Madagascar appartenant à la famille des Cuculidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coua_hupp%C3%A9</t>
+          <t>Coua_huppé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Coua huppé est un des représentants arboricoles de ce genre. Il est de taille moyenne (40 à 44 cm). Il présente une silhouette robuste mais élancée. Sa tête est grise, surmontée d'une huppe et marquée d'une zone périophtalmique bleu ciel. Les parties supérieures du corps sont gris vert et les inférieures claires avec la gorge grise et la poitrine fauve orangé. La longue queue est bleu noir avec les rectrices externes marquées de blanc sur leur quart apical.
 En vol, cet oiseau se caractérise par ses ailes courtes et rondes et par sa longue queue bleu noir terminée de blanc.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coua_hupp%C3%A9</t>
+          <t>Coua_huppé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Coua huppé est représenté par quatre sous-espèces :
 Coua cristata cristata (Linnaeus, 1766)
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coua_hupp%C3%A9</t>
+          <t>Coua_huppé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Coua huppé fréquente les forêts primaires ainsi que les formations boisées secondaires. Il vit du niveau de la mer jusqu'à 1 200 m d'altitude.
 </t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Coua_hupp%C3%A9</t>
+          <t>Coua_huppé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se nourrit principalement d'insectes mais également de petits vertébrés, de mollusques, de baies et de divers fruits.
 </t>
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Coua_hupp%C3%A9</t>
+          <t>Coua_huppé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +662,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La nidification a été constatée en novembre et décembre. Le nid de cette espèce est construit dans un arbre entre 4 et 15 m de hauteur. Il présente la forme d'une coupe peu profonde. Il est constitué de brindilles et de radicelles. La ponte est de deux œufs blanc mat (en moyenne 34,7 x 26,5 mm). Le poussin présente un dessin buccal spécifique.
 </t>
